--- a/documents/Published/FunnelWithSource/FunnelWithSourceByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/FunnelWithSource/FunnelWithSourceByMAQSoftwareChecklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CustomVisuals\documents\Published\FunnelWithSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual\documents\Published\FunnelWithSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38430F18-FB5C-47D5-B35D-93BE7916B20B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DD6BC2-62F6-401D-98C1-B7F70330F2CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="1" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
   </bookViews>
   <sheets>
     <sheet name="BVTs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
   <si>
     <t>S no</t>
   </si>
@@ -95,21 +95,6 @@
   <si>
     <r>
       <t>Checklist Point</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Yes/No</t>
     </r>
     <r>
       <rPr>
@@ -391,6 +376,27 @@
   </si>
   <si>
     <t>Saved Bookmark should restore the selection state as saved</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>PowerBi</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>YEs</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -510,11 +516,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,6 +590,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -600,6 +631,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,6 +662,847 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2047876</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1120356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B1E38D-767A-4CA7-80E3-167B51C37AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="830232"/>
+          <a:ext cx="1876426" cy="1052124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236702</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2239468</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1143587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B7027C-2C83-4C2D-BFCF-0A89F8711880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11466677" y="828674"/>
+          <a:ext cx="2002766" cy="1076913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>72117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1126234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1E23A7-ED5E-4F9A-B919-86A09372D457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534774" y="834117"/>
+          <a:ext cx="1895476" cy="1054117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273805</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2106030</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1105486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B2A19A-97D1-4266-B534-EEB4A61F9FB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9303505" y="800100"/>
+          <a:ext cx="1832225" cy="1067386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256874</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2257425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1296115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C202DF3F-1D17-49F1-9CAB-801359110A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14296724" y="5162550"/>
+          <a:ext cx="2000551" cy="962740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>138224</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2230035</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1296075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274B8D3D-02C6-44CF-920F-D7D9342ABEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7043849" y="4933950"/>
+          <a:ext cx="2091811" cy="1191300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2113677</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1295399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F4AE22-DB98-411B-A4EF-7ADB375E6496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410699" y="4950063"/>
+          <a:ext cx="1989853" cy="1174511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>96205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2496862</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1400923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B591ED-9F89-4B73-8680-B90D3F82A4A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11649075" y="4925380"/>
+          <a:ext cx="2287312" cy="1304718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1943753</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1276836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD14C56-8A4A-4F4A-8062-D054EDE8FA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277100" y="7431940"/>
+          <a:ext cx="1572278" cy="1169621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152197</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1981831</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1333937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D79F1FA-72B6-42E9-9F8C-B1ED7ABC468F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439072" y="8401050"/>
+          <a:ext cx="1829634" cy="1267262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>112597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2181827</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1286274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A1F838-D075-4CA7-8482-A6A2DEEF2A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14449425" y="7437322"/>
+          <a:ext cx="1772252" cy="1173677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1152766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC79915-6BF9-495E-99F7-6D713E1892C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14135100" y="10076427"/>
+          <a:ext cx="2296082" cy="991864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>606598</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2038850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1191037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FD5B75-1DD2-48F2-9FFB-23EBE6BC0172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7512223" y="9925049"/>
+          <a:ext cx="1432252" cy="1181513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2020013</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1238716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BBF18B-C82C-4D34-B5C3-5F667B663BAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448799" y="9939736"/>
+          <a:ext cx="1858089" cy="1214505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>154641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1972172</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1143307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10049A4A-702B-40A5-AA53-97D38777DF90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11811000" y="10070166"/>
+          <a:ext cx="1600697" cy="988666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2144390</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>915067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9666FF-8B3A-4958-9BFB-7A1AF38843EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11934825" y="3541159"/>
+          <a:ext cx="1649090" cy="869583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>186184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2344326</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>695613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152F00F2-3D43-42C0-A5CC-3004BD7CA19B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172324" y="3681859"/>
+          <a:ext cx="2077627" cy="509429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2085976</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>866978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827DCF59-7472-47AE-9448-20134C314187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14097000" y="3621343"/>
+          <a:ext cx="2028826" cy="741310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>154220</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2009776</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A05936B-291B-4438-91D7-48103C648CCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9441095" y="3676650"/>
+          <a:ext cx="1855556" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -949,86 +1836,86 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="12" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1049,166 +1936,166 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="29">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>46</v>
+      <c r="B10" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>4</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>4</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="29">
         <v>5</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="12" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="12" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>6</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
-        <v>6</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="E16" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="15" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>7</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>7</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>64</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1216,16 +2103,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,19 +2142,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9445F79-59A8-4539-BCC2-AC7C1C772DD6}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="94.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1275,271 +2165,451 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="33"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="33"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="E20" s="39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="33"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="33"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="33"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="33"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>19</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C27" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A21:A25"/>
@@ -1547,5 +2617,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>